--- a/テーブル定義書_精算.xlsx
+++ b/テーブル定義書_精算.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16600\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFD60D33-2D91-40BC-8856-6C1311E26A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DBFE840-F422-4EFA-BABB-A5E043B1D434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="225" windowWidth="16200" windowHeight="12503" activeTab="1" xr2:uid="{A4291F25-D489-4E6D-9EAB-D35EA18EDE9D}"/>
+    <workbookView xWindow="4192" yWindow="277" windowWidth="16200" windowHeight="12503" activeTab="1" xr2:uid="{047175C3-1432-4055-B8D4-530F91245104}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="111">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -76,7 +76,7 @@
     <t>作成日</t>
   </si>
   <si>
-    <t>2023/11/16</t>
+    <t>2023/11/17</t>
   </si>
   <si>
     <t>更新日</t>
@@ -109,6 +109,9 @@
     <t>デフォルト</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -118,75 +121,129 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>氏名</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>character varying(100)</t>
   </si>
   <si>
+    <t>月数</t>
+  </si>
+  <si>
     <t>MONTH_COUNT</t>
   </si>
   <si>
+    <t>基本金額</t>
+  </si>
+  <si>
     <t>UNIT_PRICE</t>
   </si>
   <si>
+    <t>超過単価</t>
+  </si>
+  <si>
     <t>EXCESS_PRICE</t>
   </si>
   <si>
+    <t>控除単価</t>
+  </si>
+  <si>
     <t>DEDUCTIBLE_PRICE</t>
   </si>
   <si>
+    <t>基準時間(Ｈ)_下限</t>
+  </si>
+  <si>
     <t>TIME_LOWER_LIMIT</t>
   </si>
   <si>
+    <t>基準時間(Ｈ)_上限</t>
+  </si>
+  <si>
     <t>TIME_UPPER_LIMIT</t>
   </si>
   <si>
+    <t>作業期間(開始)</t>
+  </si>
+  <si>
     <t>DATE_START</t>
   </si>
   <si>
     <t>date</t>
   </si>
   <si>
+    <t>作業期間(終了)</t>
+  </si>
+  <si>
     <t>DATE_END</t>
   </si>
   <si>
     <t>REMARKS</t>
   </si>
   <si>
+    <t>合計</t>
+  </si>
+  <si>
     <t>SUM</t>
   </si>
   <si>
+    <t>リビジョン番号</t>
+  </si>
+  <si>
     <t>rev_no</t>
   </si>
   <si>
+    <t>作成日時</t>
+  </si>
+  <si>
     <t>crt_date</t>
   </si>
   <si>
     <t>timestamp(6) without time zone</t>
   </si>
   <si>
+    <t>作成者ID</t>
+  </si>
+  <si>
     <t>crtprsn_id</t>
   </si>
   <si>
     <t>character(20)</t>
   </si>
   <si>
+    <t>更新日時</t>
+  </si>
+  <si>
     <t>upd_date</t>
   </si>
   <si>
+    <t>更新者ID</t>
+  </si>
+  <si>
     <t>updprsn_id</t>
   </si>
   <si>
+    <t>削除フラグ</t>
+  </si>
+  <si>
     <t>del_flg</t>
   </si>
   <si>
     <t>character(1)</t>
   </si>
   <si>
+    <t>削除日時</t>
+  </si>
+  <si>
     <t>del_date</t>
   </si>
   <si>
+    <t>削除者ID</t>
+  </si>
+  <si>
     <t>delprsn_id</t>
   </si>
   <si>
@@ -220,97 +277,13 @@
     <t>制約定義</t>
   </si>
   <si>
-    <t>2200_16554_10_not_null</t>
+    <t>2200_16583_1_not_null</t>
   </si>
   <si>
     <t>CHECK</t>
   </si>
   <si>
-    <t>DATE_END IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16554_13_not_null</t>
-  </si>
-  <si>
-    <t>rev_no IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16554_14_not_null</t>
-  </si>
-  <si>
-    <t>crt_date IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16554_15_not_null</t>
-  </si>
-  <si>
-    <t>crtprsn_id IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16554_16_not_null</t>
-  </si>
-  <si>
-    <t>upd_date IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16554_17_not_null</t>
-  </si>
-  <si>
-    <t>updprsn_id IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16554_18_not_null</t>
-  </si>
-  <si>
-    <t>del_flg IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16554_19_not_null</t>
-  </si>
-  <si>
-    <t>del_date IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16554_1_not_null</t>
-  </si>
-  <si>
     <t>id IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16554_20_not_null</t>
-  </si>
-  <si>
-    <t>delprsn_id IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16554_2_not_null</t>
-  </si>
-  <si>
-    <t>name IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16554_3_not_null</t>
-  </si>
-  <si>
-    <t>MONTH_COUNT IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16554_7_not_null</t>
-  </si>
-  <si>
-    <t>TIME_LOWER_LIMIT IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16554_8_not_null</t>
-  </si>
-  <si>
-    <t>TIME_UPPER_LIMIT IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16554_9_not_null</t>
-  </si>
-  <si>
-    <t>DATE_START IS NOT NULL</t>
   </si>
   <si>
     <t>外部キー情報</t>
@@ -484,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -926,6 +899,82 @@
       <top style="dotted">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
       <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
@@ -956,36 +1005,49 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1018,58 +1080,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1079,7 +1089,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1179,6 +1189,9 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1236,55 +1249,64 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1607,7 +1629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDE401D-A356-4AA5-A012-0EDAEFDFE0AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DF2CD1-51DE-44B4-9FA8-6CDA3FB86037}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1656,7 +1678,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" location="'精算'!A1" display="'精算'!A1" xr:uid="{E6FDECA3-FFAC-451F-B8BE-835F59DCA8EF}"/>
+    <hyperlink ref="C3" location="'精算'!A1" display="'精算'!A1" xr:uid="{87ABD90A-3463-4A65-A347-310B03877F91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1668,11 +1690,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165A1FD4-F6FE-4003-8102-D7B523DF638B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD81083-CD4C-4C39-94C2-0556E88A6A43}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1821,444 +1843,444 @@
       <c r="F13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="36">
+      <c r="A14" s="37">
         <v>1</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="37" t="s">
+      <c r="B14" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="C14" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="D14" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="40" t="s">
+      <c r="E14" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="41" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="33">
+      <c r="A15" s="34">
         <v>2</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="C15" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="34">
+        <v>3</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="33">
-        <v>3</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="34">
+        <v>4</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="33">
+      <c r="E17" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="34">
+        <v>5</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="34">
+        <v>6</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="34">
+        <v>7</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="34">
+        <v>8</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="34">
+        <v>9</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="34">
+        <v>10</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="34">
+        <v>11</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="34" t="s">
+      <c r="C24" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="33">
-        <v>5</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="33">
-        <v>6</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="33">
-        <v>7</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="34" t="s">
+      <c r="E24" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="34">
+        <v>12</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="33">
-        <v>8</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="34" t="s">
+      <c r="E25" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="34">
+        <v>13</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="33">
-        <v>9</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="33">
-        <v>10</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="33">
-        <v>11</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="33">
-        <v>12</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="33">
-        <v>13</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="42" t="s">
+      <c r="E26" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="43" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="33">
+      <c r="A27" s="34">
         <v>14</v>
       </c>
-      <c r="B27" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="42" t="s">
+      <c r="B27" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="43" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="33">
+      <c r="A28" s="34">
         <v>15</v>
       </c>
-      <c r="B28" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="42" t="s">
+      <c r="B28" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="43" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="33">
+      <c r="A29" s="34">
         <v>16</v>
       </c>
-      <c r="B29" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="42" t="s">
+      <c r="B29" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="43" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="33">
+      <c r="A30" s="34">
         <v>17</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="42" t="s">
+      <c r="B30" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="43" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="33">
+      <c r="A31" s="34">
         <v>18</v>
       </c>
-      <c r="B31" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="42" t="s">
+      <c r="B31" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="43" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="33">
+      <c r="A32" s="34">
         <v>19</v>
       </c>
-      <c r="B32" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="42" t="s">
+      <c r="B32" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="43" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2266,54 +2288,54 @@
       <c r="A33" s="3">
         <v>20</v>
       </c>
-      <c r="B33" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="44" t="s">
+      <c r="B33" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="45" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="48"/>
-      <c r="E36" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>59</v>
+      <c r="B36" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -2321,523 +2343,271 @@
         <v>1</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="52"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A40" s="36">
+        <v>81</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="4">
         <v>1</v>
       </c>
-      <c r="B40" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="55"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A41" s="33">
+      <c r="B40" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="56"/>
+    </row>
+    <row r="42" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="49"/>
+      <c r="E43" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="58"/>
+      <c r="G43" s="50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="49"/>
+      <c r="E46" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="58"/>
+      <c r="G46" s="50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="49"/>
+      <c r="E49" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="58"/>
+      <c r="G49" s="50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A52" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="59"/>
+      <c r="D52" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A53" s="69">
+        <v>1</v>
+      </c>
+      <c r="B53" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="70"/>
+      <c r="D53" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="62"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A54" s="71">
         <v>2</v>
       </c>
-      <c r="B41" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="58"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A42" s="33">
+      <c r="B54" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="72"/>
+      <c r="D54" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="65"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A55" s="71">
         <v>3</v>
       </c>
-      <c r="B42" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="58"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A43" s="33">
+      <c r="B55" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="72"/>
+      <c r="D55" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="65"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A56" s="71">
         <v>4</v>
       </c>
-      <c r="B43" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="58"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A44" s="33">
+      <c r="B56" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="72"/>
+      <c r="D56" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="65"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A57" s="71">
         <v>5</v>
       </c>
-      <c r="B44" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A45" s="33">
+      <c r="B57" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="72"/>
+      <c r="D57" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="65"/>
+    </row>
+    <row r="58" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A58" s="71">
         <v>6</v>
       </c>
-      <c r="B45" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="58"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A46" s="33">
+      <c r="B58" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="72"/>
+      <c r="D58" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="65"/>
+    </row>
+    <row r="59" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A59" s="71">
         <v>7</v>
       </c>
-      <c r="B46" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="58"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A47" s="33">
+      <c r="B59" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="72"/>
+      <c r="D59" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="65"/>
+    </row>
+    <row r="60" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="73">
         <v>8</v>
       </c>
-      <c r="B47" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="58"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A48" s="33">
-        <v>9</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="58"/>
-    </row>
-    <row r="49" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A49" s="33">
-        <v>10</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D49" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="58"/>
-    </row>
-    <row r="50" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A50" s="33">
-        <v>11</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="58"/>
-    </row>
-    <row r="51" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A51" s="33">
-        <v>12</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="58"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A52" s="33">
-        <v>13</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="58"/>
-    </row>
-    <row r="53" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A53" s="33">
-        <v>14</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="58"/>
-    </row>
-    <row r="54" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="3">
-        <v>15</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="61"/>
-    </row>
-    <row r="56" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D57" s="48"/>
-      <c r="E57" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="F57" s="63"/>
-      <c r="G57" s="49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" s="48"/>
-      <c r="E60" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="F60" s="63"/>
-      <c r="G60" s="49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="D63" s="48"/>
-      <c r="E63" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="F63" s="63"/>
-      <c r="G63" s="49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="2" t="s">
+      <c r="B60" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="74"/>
+      <c r="D60" s="66" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A66" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="52"/>
-    </row>
-    <row r="67" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A67" s="65">
-        <v>1</v>
-      </c>
-      <c r="B67" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="C67" s="66"/>
-      <c r="D67" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="55"/>
-    </row>
-    <row r="68" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A68" s="67">
-        <v>2</v>
-      </c>
-      <c r="B68" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="C68" s="68"/>
-      <c r="D68" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="57"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="58"/>
-    </row>
-    <row r="69" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A69" s="67">
-        <v>3</v>
-      </c>
-      <c r="B69" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="C69" s="68"/>
-      <c r="D69" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E69" s="57"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="58"/>
-    </row>
-    <row r="70" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A70" s="67">
-        <v>4</v>
-      </c>
-      <c r="B70" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C70" s="68"/>
-      <c r="D70" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E70" s="57"/>
-      <c r="F70" s="57"/>
-      <c r="G70" s="58"/>
-    </row>
-    <row r="71" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A71" s="67">
-        <v>5</v>
-      </c>
-      <c r="B71" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C71" s="68"/>
-      <c r="D71" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E71" s="57"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="58"/>
-    </row>
-    <row r="72" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A72" s="67">
-        <v>6</v>
-      </c>
-      <c r="B72" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" s="68"/>
-      <c r="D72" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E72" s="57"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="58"/>
-    </row>
-    <row r="73" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A73" s="67">
-        <v>7</v>
-      </c>
-      <c r="B73" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="68"/>
-      <c r="D73" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="E73" s="57"/>
-      <c r="F73" s="57"/>
-      <c r="G73" s="58"/>
-    </row>
-    <row r="74" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="69">
-        <v>8</v>
-      </c>
-      <c r="B74" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="61"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D52:G52"/>
+  <mergeCells count="32">
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:G54"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E49:F49"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
